--- a/biology/Zoologie/Choucador_splendide/Choucador_splendide.xlsx
+++ b/biology/Zoologie/Choucador_splendide/Choucador_splendide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La photo ci-contre représente Lamprotornis purpureus, choucador pourpré. Derrière, il est possible mais pas certain que l'oiseau soit Lamprotornis chloropterus, mais on voit mal.
 Lamprotornis splendidus
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,12 +550,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Reproduction</t>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve en Angola, Bénin, Burundi, Cameroun, République centrafricaine, République du Congo, République démocratique du Congo, Éthiopie, Gabon, Gambie, Ghana, Guinée, Guinée-Bissau, Guinée équatoriale, Kenya, Libéria, Mali, Niger, Nigeria, Ouganda, Rwanda, Sao Tomé-et-Principe, Sénégal, Sierra Leone, Soudan, Tanzanie, Togo et Zambie.
+</t>
         </is>
       </c>
     </row>
@@ -566,12 +583,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve en Angola, Bénin, Burundi, Cameroun, République centrafricaine, République du Congo, République démocratique du Congo, Éthiopie, Gabon, Gambie, Ghana, Guinée, Guinée-Bissau, Guinée équatoriale, Kenya, Libéria, Mali, Niger, Nigeria, Ouganda, Rwanda, Sao Tomé-et-Principe, Sénégal, Sierra Leone, Soudan, Tanzanie, Togo et Zambie.
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lamprotornis splendidus a été décrite par l'ornithologue français Louis Jean Pierre Vieillot en 1822, sous le nom initial de Turdus splendidus.
 </t>
         </is>
       </c>
@@ -602,9 +621,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L'espèce Lamprotornis splendidus a été décrite par l'ornithologue français Louis Jean Pierre Vieillot en 1822, sous le nom initial de Turdus splendidus.
-Synonyme
-Turdus splendidus Vieillot, 1822 (protonyme)</t>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Turdus splendidus Vieillot, 1822 (protonyme)</t>
         </is>
       </c>
     </row>
